--- a/data/pca/factorExposure/factorExposure_2014-11-20.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-11-20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,21 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +726,57 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.001122216399259301</v>
+        <v>0.008369810158273152</v>
       </c>
       <c r="C2">
-        <v>0.07793120815508979</v>
+        <v>-0.07146327347885811</v>
       </c>
       <c r="D2">
-        <v>-0.144441503568847</v>
+        <v>0.008123581252246185</v>
       </c>
       <c r="E2">
-        <v>0.1647404856234264</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.1788997442640848</v>
+      </c>
+      <c r="F2">
+        <v>-0.04014656574060686</v>
+      </c>
+      <c r="G2">
+        <v>0.07055574882889427</v>
+      </c>
+      <c r="H2">
+        <v>0.06209685882957143</v>
+      </c>
+      <c r="I2">
+        <v>-0.101437819794297</v>
+      </c>
+      <c r="J2">
+        <v>0.2324711372899178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +790,57 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.01459202435953785</v>
+        <v>0.01218028163478608</v>
       </c>
       <c r="C4">
-        <v>0.1507436987377947</v>
+        <v>-0.1530131940788097</v>
       </c>
       <c r="D4">
-        <v>-0.07043496838503512</v>
+        <v>-0.02487548520502412</v>
       </c>
       <c r="E4">
-        <v>0.06793417720893753</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.09878736206721864</v>
+      </c>
+      <c r="F4">
+        <v>0.06773565777258592</v>
+      </c>
+      <c r="G4">
+        <v>0.007339969586193099</v>
+      </c>
+      <c r="H4">
+        <v>0.100571675700289</v>
+      </c>
+      <c r="I4">
+        <v>0.02649521047501636</v>
+      </c>
+      <c r="J4">
+        <v>0.1400106490153001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +854,377 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0.01656097529953118</v>
+        <v>0.03191748917170827</v>
       </c>
       <c r="C6">
-        <v>0.06957462133785476</v>
+        <v>-0.07186736054003261</v>
       </c>
       <c r="D6">
-        <v>-0.06410624016218171</v>
+        <v>-0.007528195023751062</v>
       </c>
       <c r="E6">
-        <v>0.1004195692500309</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.116140139701517</v>
+      </c>
+      <c r="F6">
+        <v>-0.0274424852451355</v>
+      </c>
+      <c r="G6">
+        <v>-0.04177624660946612</v>
+      </c>
+      <c r="H6">
+        <v>0.0319881546205625</v>
+      </c>
+      <c r="I6">
+        <v>-0.0470891429378273</v>
+      </c>
+      <c r="J6">
+        <v>0.02065200202283828</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.01745346487325697</v>
+        <v>0.006192610285454215</v>
       </c>
       <c r="C7">
-        <v>0.05086372367061217</v>
+        <v>-0.06791981291732424</v>
       </c>
       <c r="D7">
-        <v>-0.0315759426651518</v>
+        <v>-0.00353356227539207</v>
       </c>
       <c r="E7">
-        <v>0.05650273200208678</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.05272450153372208</v>
+      </c>
+      <c r="F7">
+        <v>0.02096286737259872</v>
+      </c>
+      <c r="G7">
+        <v>-0.06174203505536754</v>
+      </c>
+      <c r="H7">
+        <v>0.07736861209297083</v>
+      </c>
+      <c r="I7">
+        <v>-0.006426067797429946</v>
+      </c>
+      <c r="J7">
+        <v>0.035681442135263</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.01568641129267825</v>
+        <v>-0.009049010816482211</v>
       </c>
       <c r="C8">
-        <v>0.07630665743187227</v>
+        <v>-0.07142000159825206</v>
       </c>
       <c r="D8">
-        <v>-0.05513299892739169</v>
+        <v>-0.02550112027433605</v>
       </c>
       <c r="E8">
-        <v>0.1255819118790633</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.08632390576073708</v>
+      </c>
+      <c r="F8">
+        <v>0.02680937952172205</v>
+      </c>
+      <c r="G8">
+        <v>0.05429214459883306</v>
+      </c>
+      <c r="H8">
+        <v>0.0307921429822174</v>
+      </c>
+      <c r="I8">
+        <v>-0.005755278284267013</v>
+      </c>
+      <c r="J8">
+        <v>0.01762501841997954</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0.006000193579389663</v>
+        <v>0.007195590419445727</v>
       </c>
       <c r="C9">
-        <v>0.1281853439721038</v>
+        <v>-0.118250432313936</v>
       </c>
       <c r="D9">
-        <v>-0.04496429928253578</v>
+        <v>-0.0191635383769197</v>
       </c>
       <c r="E9">
-        <v>0.05899940528591249</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.06166678105042984</v>
+      </c>
+      <c r="F9">
+        <v>0.01353677996017809</v>
+      </c>
+      <c r="G9">
+        <v>-0.002057648122750794</v>
+      </c>
+      <c r="H9">
+        <v>0.09765266428199404</v>
+      </c>
+      <c r="I9">
+        <v>-0.001921649651732517</v>
+      </c>
+      <c r="J9">
+        <v>0.06240471186605426</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>0.258384221162081</v>
+        <v>0.2515239913280676</v>
       </c>
       <c r="C10">
-        <v>-0.08748493262046379</v>
+        <v>0.0816310590607412</v>
       </c>
       <c r="D10">
-        <v>-0.04238504959694792</v>
+        <v>0.003600021047080846</v>
       </c>
       <c r="E10">
-        <v>-0.04846765332228466</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.01233817101470341</v>
+      </c>
+      <c r="F10">
+        <v>0.0129528675812701</v>
+      </c>
+      <c r="G10">
+        <v>-0.01676728744721964</v>
+      </c>
+      <c r="H10">
+        <v>0.03068669807272117</v>
+      </c>
+      <c r="I10">
+        <v>0.1680406335512638</v>
+      </c>
+      <c r="J10">
+        <v>-0.08635866607750733</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.002122756753070641</v>
+        <v>0.0101676554932017</v>
       </c>
       <c r="C11">
-        <v>0.06389686514555766</v>
+        <v>-0.08086641709699435</v>
       </c>
       <c r="D11">
-        <v>-0.01988904761237296</v>
+        <v>-0.01952229848001467</v>
       </c>
       <c r="E11">
-        <v>0.02950486565903329</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.02142050580923995</v>
+      </c>
+      <c r="F11">
+        <v>0.008838902730167885</v>
+      </c>
+      <c r="G11">
+        <v>-0.03363736998327026</v>
+      </c>
+      <c r="H11">
+        <v>0.02668649138826909</v>
+      </c>
+      <c r="I11">
+        <v>0.005391786795931728</v>
+      </c>
+      <c r="J11">
+        <v>-0.03435319381365715</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>0.003374001992463789</v>
+        <v>0.01135807348649901</v>
       </c>
       <c r="C12">
-        <v>0.0598578411558305</v>
+        <v>-0.06296926804422487</v>
       </c>
       <c r="D12">
-        <v>-0.01521952829420027</v>
+        <v>-0.008122483280710153</v>
       </c>
       <c r="E12">
-        <v>0.02363865534412545</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.02076976433322643</v>
+      </c>
+      <c r="F12">
+        <v>-0.02049778690211304</v>
+      </c>
+      <c r="G12">
+        <v>-0.03648099250708982</v>
+      </c>
+      <c r="H12">
+        <v>0.02817218526060543</v>
+      </c>
+      <c r="I12">
+        <v>0.009809828261103158</v>
+      </c>
+      <c r="J12">
+        <v>-0.008093608508634302</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>0.004112211483915536</v>
+        <v>0.0008313728623186096</v>
       </c>
       <c r="C13">
-        <v>0.08648229687673685</v>
+        <v>-0.1111161021364013</v>
       </c>
       <c r="D13">
-        <v>-0.0778203875911343</v>
+        <v>0.003437913207448033</v>
       </c>
       <c r="E13">
-        <v>0.1271705387250361</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.1575830169993128</v>
+      </c>
+      <c r="F13">
+        <v>-0.09766418922744066</v>
+      </c>
+      <c r="G13">
+        <v>-0.0755977789971107</v>
+      </c>
+      <c r="H13">
+        <v>0.07190689076253449</v>
+      </c>
+      <c r="I13">
+        <v>0.1062679796477138</v>
+      </c>
+      <c r="J13">
+        <v>-0.05353693027995961</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>-0.006168605756582368</v>
+        <v>0.008024245831193483</v>
       </c>
       <c r="C14">
-        <v>0.06035822195189437</v>
+        <v>-0.07865149726261947</v>
       </c>
       <c r="D14">
-        <v>-0.03077021018577925</v>
+        <v>-0.02596015005176175</v>
       </c>
       <c r="E14">
-        <v>0.06150131175216714</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.09253730112915125</v>
+      </c>
+      <c r="F14">
+        <v>-0.03675878707419766</v>
+      </c>
+      <c r="G14">
+        <v>-0.1047597940833201</v>
+      </c>
+      <c r="H14">
+        <v>0.1799239415594163</v>
+      </c>
+      <c r="I14">
+        <v>-0.02009397436577602</v>
+      </c>
+      <c r="J14">
+        <v>-0.1663699344610564</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>-0.0009953268468527625</v>
+        <v>-0.000980039602237674</v>
       </c>
       <c r="C15">
-        <v>0.07185996787982818</v>
+        <v>-0.07244249481739982</v>
       </c>
       <c r="D15">
-        <v>-0.04938852439511512</v>
+        <v>-0.01055255650443448</v>
       </c>
       <c r="E15">
-        <v>0.08839335689565145</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.06558108688306453</v>
+      </c>
+      <c r="F15">
+        <v>0.007359432523969148</v>
+      </c>
+      <c r="G15">
+        <v>-0.0321756140803974</v>
+      </c>
+      <c r="H15">
+        <v>0.05855687560729937</v>
+      </c>
+      <c r="I15">
+        <v>-0.008788276222153467</v>
+      </c>
+      <c r="J15">
+        <v>-0.05019513670713132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>0.006815619926155041</v>
+        <v>0.01074383142342356</v>
       </c>
       <c r="C16">
-        <v>0.05924335075339751</v>
+        <v>-0.06744151278266962</v>
       </c>
       <c r="D16">
-        <v>-0.019443969403435</v>
+        <v>-0.009358995836672556</v>
       </c>
       <c r="E16">
-        <v>0.02031008079638567</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.01412377442340313</v>
+      </c>
+      <c r="F16">
+        <v>-0.002099750849598673</v>
+      </c>
+      <c r="G16">
+        <v>-0.03266573166391649</v>
+      </c>
+      <c r="H16">
+        <v>0.02596055778178593</v>
+      </c>
+      <c r="I16">
+        <v>0.008835252699853857</v>
+      </c>
+      <c r="J16">
+        <v>-0.007974026871817936</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1238,25 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,10 +1270,25 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1017,129 +1302,249 @@
       <c r="E19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>8.227725533241584e-05</v>
+        <v>0.005595766587552277</v>
       </c>
       <c r="C20">
-        <v>0.07034357567752315</v>
+        <v>-0.08527802186965389</v>
       </c>
       <c r="D20">
-        <v>-0.05137042817818101</v>
+        <v>-0.0005959197747282027</v>
       </c>
       <c r="E20">
-        <v>0.04402070816550126</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.04113046775951359</v>
+      </c>
+      <c r="F20">
+        <v>0.01554701807179304</v>
+      </c>
+      <c r="G20">
+        <v>-0.0726989819594331</v>
+      </c>
+      <c r="H20">
+        <v>0.05541198415171045</v>
+      </c>
+      <c r="I20">
+        <v>-0.006474653107464979</v>
+      </c>
+      <c r="J20">
+        <v>0.006266546625752121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>-0.001904669482369569</v>
+        <v>0.006135208856250248</v>
       </c>
       <c r="C21">
-        <v>0.08928873223837601</v>
+        <v>-0.08333276727490035</v>
       </c>
       <c r="D21">
-        <v>-0.08672737740586735</v>
+        <v>-0.003425762987840821</v>
       </c>
       <c r="E21">
-        <v>0.05721291990202523</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.08623209813915415</v>
+      </c>
+      <c r="F21">
+        <v>-0.07717464357317258</v>
+      </c>
+      <c r="G21">
+        <v>-0.0208718755921386</v>
+      </c>
+      <c r="H21">
+        <v>0.1577907586359372</v>
+      </c>
+      <c r="I21">
+        <v>0.04091023470833813</v>
+      </c>
+      <c r="J21">
+        <v>-0.03428688213429008</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B22">
-        <v>-0.0121204729109371</v>
+        <v>-0.01518321100510952</v>
       </c>
       <c r="C22">
-        <v>0.1320222638413302</v>
+        <v>-0.1424854196804417</v>
       </c>
       <c r="D22">
-        <v>-0.2475174809356274</v>
+        <v>0.03107891064776008</v>
       </c>
       <c r="E22">
-        <v>0.1916138222302596</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.3664828434317938</v>
+      </c>
+      <c r="F22">
+        <v>0.1555544223866164</v>
+      </c>
+      <c r="G22">
+        <v>0.2882514297144666</v>
+      </c>
+      <c r="H22">
+        <v>-0.3657886871730757</v>
+      </c>
+      <c r="I22">
+        <v>0.04069138264577917</v>
+      </c>
+      <c r="J22">
+        <v>-0.2138438647944639</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B23">
-        <v>-0.01259846253548632</v>
+        <v>-0.01162650847311409</v>
       </c>
       <c r="C23">
-        <v>0.1336276985200253</v>
+        <v>-0.1469525508934073</v>
       </c>
       <c r="D23">
-        <v>-0.245927558386724</v>
+        <v>0.03346331274747412</v>
       </c>
       <c r="E23">
-        <v>0.1899416266236732</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.3581846130845416</v>
+      </c>
+      <c r="F23">
+        <v>0.1482532180199167</v>
+      </c>
+      <c r="G23">
+        <v>0.2786127495915374</v>
+      </c>
+      <c r="H23">
+        <v>-0.3417382751314029</v>
+      </c>
+      <c r="I23">
+        <v>0.04402395230941968</v>
+      </c>
+      <c r="J23">
+        <v>-0.2033752032550287</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>-7.122184688754619e-06</v>
+        <v>0.01102309607536524</v>
       </c>
       <c r="C24">
-        <v>0.07570432596949236</v>
+        <v>-0.0774712668779754</v>
       </c>
       <c r="D24">
-        <v>-0.011415721422411</v>
+        <v>-0.02398444666735281</v>
       </c>
       <c r="E24">
-        <v>0.03666195535157757</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.0236735249425353</v>
+      </c>
+      <c r="F24">
+        <v>0.002541906970889388</v>
+      </c>
+      <c r="G24">
+        <v>-0.03755373119426941</v>
+      </c>
+      <c r="H24">
+        <v>0.03787981468801655</v>
+      </c>
+      <c r="I24">
+        <v>0.001542191584562352</v>
+      </c>
+      <c r="J24">
+        <v>-0.01129578418593264</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>0.007533121350982669</v>
+        <v>0.01722220987648283</v>
       </c>
       <c r="C25">
-        <v>0.07217831207606185</v>
+        <v>-0.07572457894439943</v>
       </c>
       <c r="D25">
-        <v>-0.01586932140105748</v>
+        <v>-0.01479916532677932</v>
       </c>
       <c r="E25">
-        <v>0.01548468521796544</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.01743821218575583</v>
+      </c>
+      <c r="F25">
+        <v>0.005670963503559607</v>
+      </c>
+      <c r="G25">
+        <v>-0.03168467974889845</v>
+      </c>
+      <c r="H25">
+        <v>0.02911370391454273</v>
+      </c>
+      <c r="I25">
+        <v>0.01747066429046595</v>
+      </c>
+      <c r="J25">
+        <v>-0.03324870651494569</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>0.002636288998499469</v>
+        <v>0.01614892742949319</v>
       </c>
       <c r="C26">
-        <v>0.05210938739497736</v>
+        <v>-0.06363699010004824</v>
       </c>
       <c r="D26">
-        <v>-0.02344140340448235</v>
+        <v>-0.04345923155719929</v>
       </c>
       <c r="E26">
-        <v>0.06103247065122105</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.04253497798624645</v>
+      </c>
+      <c r="F26">
+        <v>-0.007067384609281497</v>
+      </c>
+      <c r="G26">
+        <v>-0.03470809374378687</v>
+      </c>
+      <c r="H26">
+        <v>0.1184459440859878</v>
+      </c>
+      <c r="I26">
+        <v>0.01935526196641743</v>
+      </c>
+      <c r="J26">
+        <v>0.08023277175091807</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1558,313 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>0.3318569832025184</v>
+        <v>0.315862966554436</v>
       </c>
       <c r="C28">
-        <v>-0.09428591190474883</v>
+        <v>0.1016973287062198</v>
       </c>
       <c r="D28">
-        <v>-0.02812177646525759</v>
+        <v>0.01701652240219868</v>
       </c>
       <c r="E28">
-        <v>-0.0582067620904154</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.01453773153592457</v>
+      </c>
+      <c r="F28">
+        <v>0.04815359849010806</v>
+      </c>
+      <c r="G28">
+        <v>0.06047235781106709</v>
+      </c>
+      <c r="H28">
+        <v>0.08213889368519366</v>
+      </c>
+      <c r="I28">
+        <v>0.178139758882557</v>
+      </c>
+      <c r="J28">
+        <v>0.05101703074410877</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>-0.003064479254598951</v>
+        <v>0.005215723048748783</v>
       </c>
       <c r="C29">
-        <v>0.05825876890383536</v>
+        <v>-0.08123029667266295</v>
       </c>
       <c r="D29">
-        <v>-0.04999147018965287</v>
+        <v>-0.01992758024077916</v>
       </c>
       <c r="E29">
-        <v>0.09324600244580568</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.1363239522887073</v>
+      </c>
+      <c r="F29">
+        <v>-0.04954509842130535</v>
+      </c>
+      <c r="G29">
+        <v>-0.1536237583127004</v>
+      </c>
+      <c r="H29">
+        <v>0.2496004493240777</v>
+      </c>
+      <c r="I29">
+        <v>-0.04269789376638833</v>
+      </c>
+      <c r="J29">
+        <v>-0.243284629693547</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>0.01490966760908542</v>
+        <v>0.01841607631796677</v>
       </c>
       <c r="C30">
-        <v>0.1739281548726678</v>
+        <v>-0.156932245524663</v>
       </c>
       <c r="D30">
-        <v>-0.04728528629807899</v>
+        <v>-0.03117001163709881</v>
       </c>
       <c r="E30">
-        <v>0.08012008261364992</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.07264673177090172</v>
+      </c>
+      <c r="F30">
+        <v>0.02447579922000329</v>
+      </c>
+      <c r="G30">
+        <v>0.01764944344842352</v>
+      </c>
+      <c r="H30">
+        <v>0.02462010778277235</v>
+      </c>
+      <c r="I30">
+        <v>-0.01702311551718398</v>
+      </c>
+      <c r="J30">
+        <v>0.08221714525730647</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>-0.01286631444012529</v>
+        <v>0.003975661807134386</v>
       </c>
       <c r="C31">
-        <v>0.1002638216130176</v>
+        <v>-0.09947954502767047</v>
       </c>
       <c r="D31">
-        <v>0.03407460748791674</v>
+        <v>-0.0308400918384464</v>
       </c>
       <c r="E31">
-        <v>-0.003671074760095438</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.01444388616862207</v>
+      </c>
+      <c r="F31">
+        <v>-0.003181673890901953</v>
+      </c>
+      <c r="G31">
+        <v>0.02272841212414934</v>
+      </c>
+      <c r="H31">
+        <v>0.05179566080660174</v>
+      </c>
+      <c r="I31">
+        <v>0.03648756768479169</v>
+      </c>
+      <c r="J31">
+        <v>-0.04784046123213393</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>0.02349794731549999</v>
+        <v>0.02169977745031298</v>
       </c>
       <c r="C32">
-        <v>0.07519626579533382</v>
+        <v>-0.06831154666996758</v>
       </c>
       <c r="D32">
-        <v>-0.1164861729703298</v>
+        <v>0.01256008731934177</v>
       </c>
       <c r="E32">
-        <v>0.08643606402602726</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.1342392993276657</v>
+      </c>
+      <c r="F32">
+        <v>-0.02569786633849609</v>
+      </c>
+      <c r="G32">
+        <v>-0.01673817387236337</v>
+      </c>
+      <c r="H32">
+        <v>0.1029275400820368</v>
+      </c>
+      <c r="I32">
+        <v>0.230065779208189</v>
+      </c>
+      <c r="J32">
+        <v>0.04027420586735344</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>-0.001337528246188252</v>
+        <v>0.00847152622693168</v>
       </c>
       <c r="C33">
-        <v>0.09073054360196563</v>
+        <v>-0.1105720465356852</v>
       </c>
       <c r="D33">
-        <v>-0.02698577867887116</v>
+        <v>-0.01355656897910891</v>
       </c>
       <c r="E33">
-        <v>0.05881794726914587</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.05580751770232805</v>
+      </c>
+      <c r="F33">
+        <v>0.002786545937600744</v>
+      </c>
+      <c r="G33">
+        <v>-0.03899128486808683</v>
+      </c>
+      <c r="H33">
+        <v>0.05228555968119918</v>
+      </c>
+      <c r="I33">
+        <v>0.02754014362995802</v>
+      </c>
+      <c r="J33">
+        <v>-0.01208452292665775</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>-0.001322630984779625</v>
+        <v>0.01132809770212111</v>
       </c>
       <c r="C34">
-        <v>0.05693242036789439</v>
+        <v>-0.05609816970280233</v>
       </c>
       <c r="D34">
-        <v>-0.007055590684832512</v>
+        <v>-0.01248805254352449</v>
       </c>
       <c r="E34">
-        <v>0.01860941824296998</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.01024442910321361</v>
+      </c>
+      <c r="F34">
+        <v>-0.009797521760810926</v>
+      </c>
+      <c r="G34">
+        <v>-0.03021154094857196</v>
+      </c>
+      <c r="H34">
+        <v>-0.000287274715797151</v>
+      </c>
+      <c r="I34">
+        <v>0.02030406310448275</v>
+      </c>
+      <c r="J34">
+        <v>-0.01442783664757455</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B35">
-        <v>0.001292965296036064</v>
+        <v>0.006090676039867658</v>
       </c>
       <c r="C35">
-        <v>0.009117507755625831</v>
+        <v>-0.03642678136675605</v>
       </c>
       <c r="D35">
-        <v>-0.01062487369643876</v>
+        <v>-0.00521531381426406</v>
       </c>
       <c r="E35">
-        <v>0.00893209496782201</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.04505282298894162</v>
+      </c>
+      <c r="F35">
+        <v>-0.01126322407556874</v>
+      </c>
+      <c r="G35">
+        <v>-0.06453875616487778</v>
+      </c>
+      <c r="H35">
+        <v>0.1216994511908868</v>
+      </c>
+      <c r="I35">
+        <v>0.007956757076588822</v>
+      </c>
+      <c r="J35">
+        <v>-0.1758558733525904</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>0.002475906832420914</v>
+        <v>0.008896086552661234</v>
       </c>
       <c r="C36">
-        <v>0.04216745864443914</v>
+        <v>-0.04887888386142276</v>
       </c>
       <c r="D36">
-        <v>-0.02095147883323029</v>
+        <v>-0.03007838218081586</v>
       </c>
       <c r="E36">
-        <v>0.06914323076944584</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.05086864895975735</v>
+      </c>
+      <c r="F36">
+        <v>-0.001555555658264875</v>
+      </c>
+      <c r="G36">
+        <v>-0.02605239235508596</v>
+      </c>
+      <c r="H36">
+        <v>0.06550785949415114</v>
+      </c>
+      <c r="I36">
+        <v>0.007588378230564554</v>
+      </c>
+      <c r="J36">
+        <v>0.025176828983671</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1878,153 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>0.01041056500593183</v>
+        <v>0.00782759286412819</v>
       </c>
       <c r="C38">
-        <v>0.05043183388578119</v>
+        <v>-0.06610593885314542</v>
       </c>
       <c r="D38">
-        <v>-0.02034238042080657</v>
+        <v>-0.02045766647275354</v>
       </c>
       <c r="E38">
-        <v>0.04958683634859243</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.04522179703729066</v>
+      </c>
+      <c r="F38">
+        <v>0.04575895033628349</v>
+      </c>
+      <c r="G38">
+        <v>-0.01921947609333295</v>
+      </c>
+      <c r="H38">
+        <v>0.0530460835437783</v>
+      </c>
+      <c r="I38">
+        <v>0.03246222537344982</v>
+      </c>
+      <c r="J38">
+        <v>-0.04890142305243447</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>-0.001659871336227962</v>
+        <v>0.008158634716013627</v>
       </c>
       <c r="C39">
-        <v>0.1329723437175258</v>
+        <v>-0.1313655405474141</v>
       </c>
       <c r="D39">
-        <v>-0.0358461806899654</v>
+        <v>-0.03358406985610387</v>
       </c>
       <c r="E39">
-        <v>0.05738282184372666</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.03614168983347058</v>
+      </c>
+      <c r="F39">
+        <v>-0.01799849533517103</v>
+      </c>
+      <c r="G39">
+        <v>-0.05421260449276705</v>
+      </c>
+      <c r="H39">
+        <v>0.0354815526492818</v>
+      </c>
+      <c r="I39">
+        <v>-0.03566967995596079</v>
+      </c>
+      <c r="J39">
+        <v>0.004445885699096943</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>-0.003513288096712665</v>
+        <v>0.01036815557795775</v>
       </c>
       <c r="C40">
-        <v>0.02615727655147074</v>
+        <v>-0.05831928445680024</v>
       </c>
       <c r="D40">
-        <v>-0.04815161623247629</v>
+        <v>-0.006875693553243176</v>
       </c>
       <c r="E40">
-        <v>0.1220025681992667</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.1265006424511508</v>
+      </c>
+      <c r="F40">
+        <v>-0.02135245022244729</v>
+      </c>
+      <c r="G40">
+        <v>-0.0954789839289973</v>
+      </c>
+      <c r="H40">
+        <v>-0.02061005304020519</v>
+      </c>
+      <c r="I40">
+        <v>0.0177601862258956</v>
+      </c>
+      <c r="J40">
+        <v>-0.1714940637098873</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>0.008489956849543852</v>
+        <v>0.01869031466192819</v>
       </c>
       <c r="C41">
-        <v>0.02150524681460796</v>
+        <v>-0.04887848240300661</v>
       </c>
       <c r="D41">
-        <v>0.001460597156152781</v>
+        <v>-0.007291626154002239</v>
       </c>
       <c r="E41">
-        <v>-0.006353860732923673</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.001885866316800345</v>
+      </c>
+      <c r="F41">
+        <v>0.005609059782958017</v>
+      </c>
+      <c r="G41">
+        <v>-0.01301470041347683</v>
+      </c>
+      <c r="H41">
+        <v>0.03393713512606432</v>
+      </c>
+      <c r="I41">
+        <v>0.04333647001375365</v>
+      </c>
+      <c r="J41">
+        <v>-0.05916671661176405</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +2038,89 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>-0.003903531312673253</v>
+        <v>0.01039031400062456</v>
       </c>
       <c r="C43">
-        <v>0.01727750768125445</v>
+        <v>-0.04388591644632771</v>
       </c>
       <c r="D43">
-        <v>-0.01305629498436489</v>
+        <v>-0.01642381797797001</v>
       </c>
       <c r="E43">
-        <v>0.0262315113328616</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.02077214815561537</v>
+      </c>
+      <c r="F43">
+        <v>0.01376844009500331</v>
+      </c>
+      <c r="G43">
+        <v>-0.03063517795801907</v>
+      </c>
+      <c r="H43">
+        <v>0.04353071301509989</v>
+      </c>
+      <c r="I43">
+        <v>0.01604778183592756</v>
+      </c>
+      <c r="J43">
+        <v>-0.04378017569208811</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>0.01325029656390304</v>
+        <v>0.004812055832894528</v>
       </c>
       <c r="C44">
-        <v>0.07795136858195638</v>
+        <v>-0.08410356733863333</v>
       </c>
       <c r="D44">
-        <v>-0.0634014809978472</v>
+        <v>-0.03431743750864954</v>
       </c>
       <c r="E44">
-        <v>0.1001531400982365</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.09966588650848407</v>
+      </c>
+      <c r="F44">
+        <v>0.008520305763296224</v>
+      </c>
+      <c r="G44">
+        <v>-0.02452206259690131</v>
+      </c>
+      <c r="H44">
+        <v>0.0227251621742894</v>
+      </c>
+      <c r="I44">
+        <v>-0.04275417411052628</v>
+      </c>
+      <c r="J44">
+        <v>0.04357067910214947</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,112 +2134,217 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>-0.01697074629694145</v>
+        <v>-0.004993203383549788</v>
       </c>
       <c r="C46">
-        <v>0.06434674206521603</v>
+        <v>-0.06862107782077401</v>
       </c>
       <c r="D46">
-        <v>-0.03141256466391112</v>
+        <v>-0.0224858878537215</v>
       </c>
       <c r="E46">
-        <v>0.08283035322081195</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.06010688808262708</v>
+      </c>
+      <c r="F46">
+        <v>-0.00635125033773709</v>
+      </c>
+      <c r="G46">
+        <v>-0.07726203518314793</v>
+      </c>
+      <c r="H46">
+        <v>0.1175811154606134</v>
+      </c>
+      <c r="I46">
+        <v>-0.005043704031517634</v>
+      </c>
+      <c r="J46">
+        <v>-0.1066381315094357</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>0.007341786763762653</v>
+        <v>0.01959964062571469</v>
       </c>
       <c r="C47">
-        <v>0.1138608721326666</v>
+        <v>-0.09995123049503117</v>
       </c>
       <c r="D47">
-        <v>0.02487759998995025</v>
+        <v>-0.02683813638128759</v>
       </c>
       <c r="E47">
-        <v>-0.04133174305377593</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.01808997421291467</v>
+      </c>
+      <c r="F47">
+        <v>0.0008842180246397728</v>
+      </c>
+      <c r="G47">
+        <v>-0.00169045233705825</v>
+      </c>
+      <c r="H47">
+        <v>0.07921704139410639</v>
+      </c>
+      <c r="I47">
+        <v>0.03618389098020324</v>
+      </c>
+      <c r="J47">
+        <v>-0.02355811907936891</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>0.009505639510088619</v>
+        <v>0.0154738528963901</v>
       </c>
       <c r="C48">
-        <v>0.04709266589743775</v>
+        <v>-0.05638238523600544</v>
       </c>
       <c r="D48">
-        <v>-0.00395934712595356</v>
+        <v>-0.03954005835598272</v>
       </c>
       <c r="E48">
-        <v>0.07134218452083806</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.04544678422059438</v>
+      </c>
+      <c r="F48">
+        <v>-0.0007011181663564081</v>
+      </c>
+      <c r="G48">
+        <v>-0.0335154822204046</v>
+      </c>
+      <c r="H48">
+        <v>0.1088964669324485</v>
+      </c>
+      <c r="I48">
+        <v>0.007065884372113544</v>
+      </c>
+      <c r="J48">
+        <v>0.07196672170535337</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.005125443139874511</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.008140806625729614</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>-0.009352672990809958</v>
       </c>
       <c r="E49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>-0.003661583498333038</v>
+      </c>
+      <c r="F49">
+        <v>-0.007465633429659046</v>
+      </c>
+      <c r="G49">
+        <v>-0.01583208944762316</v>
+      </c>
+      <c r="H49">
+        <v>-0.01422076062777965</v>
+      </c>
+      <c r="I49">
+        <v>-0.004155139471987203</v>
+      </c>
+      <c r="J49">
+        <v>0.004724846249602613</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>0.003973417604508956</v>
+        <v>0.01168984328738481</v>
       </c>
       <c r="C50">
-        <v>0.09468806527052066</v>
+        <v>-0.09141020205448987</v>
       </c>
       <c r="D50">
-        <v>0.01567694144167038</v>
+        <v>-0.01334568763192393</v>
       </c>
       <c r="E50">
-        <v>-0.006754324895289719</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.004224581923121018</v>
+      </c>
+      <c r="F50">
+        <v>0.01372165921898367</v>
+      </c>
+      <c r="G50">
+        <v>0.01967945750938884</v>
+      </c>
+      <c r="H50">
+        <v>0.06376346128887579</v>
+      </c>
+      <c r="I50">
+        <v>0.06326457864429587</v>
+      </c>
+      <c r="J50">
+        <v>-0.03745004426991735</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>0.003743357242198115</v>
+        <v>-0.005012721738703941</v>
       </c>
       <c r="C51">
-        <v>0.05758763926373916</v>
+        <v>-0.04087580979028745</v>
       </c>
       <c r="D51">
-        <v>-0.06379279863673948</v>
+        <v>-0.009546429800892165</v>
       </c>
       <c r="E51">
-        <v>0.06601128683153731</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.05092801815896809</v>
+      </c>
+      <c r="F51">
+        <v>-0.006201264273985612</v>
+      </c>
+      <c r="G51">
+        <v>-0.01740324079215074</v>
+      </c>
+      <c r="H51">
+        <v>0.08340487739167424</v>
+      </c>
+      <c r="I51">
+        <v>-0.02856708183570189</v>
+      </c>
+      <c r="J51">
+        <v>0.1180832674872274</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2358,153 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>0.04055771452939475</v>
+        <v>0.05048832668044042</v>
       </c>
       <c r="C53">
-        <v>0.1626000026018039</v>
+        <v>-0.1488214650517984</v>
       </c>
       <c r="D53">
-        <v>0.06637612467459622</v>
+        <v>-0.04621075397230053</v>
       </c>
       <c r="E53">
-        <v>-0.05680674100718125</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.09292160632181877</v>
+      </c>
+      <c r="F53">
+        <v>0.001398102945175725</v>
+      </c>
+      <c r="G53">
+        <v>0.04637061500211591</v>
+      </c>
+      <c r="H53">
+        <v>0.008474549798798522</v>
+      </c>
+      <c r="I53">
+        <v>0.04836227162839837</v>
+      </c>
+      <c r="J53">
+        <v>-0.01810417631565547</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>0.005998917867085149</v>
+        <v>0.01299436732619901</v>
       </c>
       <c r="C54">
-        <v>0.05782315199318194</v>
+        <v>-0.07108876864066484</v>
       </c>
       <c r="D54">
-        <v>-0.04253152159194915</v>
+        <v>0.00735317243448293</v>
       </c>
       <c r="E54">
-        <v>0.01798372458628798</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.0262215733374919</v>
+      </c>
+      <c r="F54">
+        <v>0.002242780398200811</v>
+      </c>
+      <c r="G54">
+        <v>-0.02649782162608023</v>
+      </c>
+      <c r="H54">
+        <v>0.07802875969678189</v>
+      </c>
+      <c r="I54">
+        <v>-0.01485794069184387</v>
+      </c>
+      <c r="J54">
+        <v>-0.0405079042514826</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>0.02388922595980056</v>
+        <v>0.02756041631702257</v>
       </c>
       <c r="C55">
-        <v>0.1248662521284461</v>
+        <v>-0.1079531488320297</v>
       </c>
       <c r="D55">
-        <v>0.06176486790548436</v>
+        <v>-0.04857574266624511</v>
       </c>
       <c r="E55">
-        <v>-0.01975039109359088</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.06535725672621616</v>
+      </c>
+      <c r="F55">
+        <v>-0.01356374267408237</v>
+      </c>
+      <c r="G55">
+        <v>0.02097154831608062</v>
+      </c>
+      <c r="H55">
+        <v>0.01747867267443347</v>
+      </c>
+      <c r="I55">
+        <v>0.005919923253486503</v>
+      </c>
+      <c r="J55">
+        <v>-0.005721498457805164</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>0.04437188073652069</v>
+        <v>0.04379341630564749</v>
       </c>
       <c r="C56">
-        <v>0.1977192516552126</v>
+        <v>-0.1791386425445632</v>
       </c>
       <c r="D56">
-        <v>0.09216247943199769</v>
+        <v>-0.07037015768618556</v>
       </c>
       <c r="E56">
-        <v>-0.08860897625815853</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.1329883727896406</v>
+      </c>
+      <c r="F56">
+        <v>-0.007836161001566783</v>
+      </c>
+      <c r="G56">
+        <v>0.1001617316897775</v>
+      </c>
+      <c r="H56">
+        <v>0.005992464113701138</v>
+      </c>
+      <c r="I56">
+        <v>0.04210535208788335</v>
+      </c>
+      <c r="J56">
+        <v>0.02688731269141955</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,214 +2518,409 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>0.01281606904338286</v>
+        <v>0.009196841687392826</v>
       </c>
       <c r="C58">
-        <v>0.1799228408405854</v>
+        <v>-0.1684721911013117</v>
       </c>
       <c r="D58">
-        <v>-0.2480895531768414</v>
+        <v>0.01991700126372581</v>
       </c>
       <c r="E58">
-        <v>0.1686086768004995</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.2814119287207568</v>
+      </c>
+      <c r="F58">
+        <v>0.08753944022567234</v>
+      </c>
+      <c r="G58">
+        <v>0.19737826558024</v>
+      </c>
+      <c r="H58">
+        <v>0.01772431974113498</v>
+      </c>
+      <c r="I58">
+        <v>-0.06657757155935737</v>
+      </c>
+      <c r="J58">
+        <v>0.3362285135488607</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>0.25958837997065</v>
+        <v>0.2763828037031213</v>
       </c>
       <c r="C59">
-        <v>-0.01153960516662697</v>
+        <v>0.03140700805236612</v>
       </c>
       <c r="D59">
-        <v>-0.06172421451946043</v>
+        <v>0.01053981070646522</v>
       </c>
       <c r="E59">
-        <v>0.01364478603586544</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.05029438061065958</v>
+      </c>
+      <c r="F59">
+        <v>-0.01379160828604671</v>
+      </c>
+      <c r="G59">
+        <v>0.01157948180064131</v>
+      </c>
+      <c r="H59">
+        <v>-0.02409926099742597</v>
+      </c>
+      <c r="I59">
+        <v>0.09935324679091885</v>
+      </c>
+      <c r="J59">
+        <v>0.0104237870212034</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>0.1176498817420813</v>
+        <v>0.145463285019702</v>
       </c>
       <c r="C60">
-        <v>0.1512337906288616</v>
+        <v>-0.1613043746963953</v>
       </c>
       <c r="D60">
-        <v>0.04553109419821137</v>
+        <v>-0.03203450817441664</v>
       </c>
       <c r="E60">
-        <v>0.005650176777112084</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.0337775456161169</v>
+      </c>
+      <c r="F60">
+        <v>-0.09663846162942688</v>
+      </c>
+      <c r="G60">
+        <v>-0.2252084580661464</v>
+      </c>
+      <c r="H60">
+        <v>-0.2794568693534611</v>
+      </c>
+      <c r="I60">
+        <v>-0.07027876536927795</v>
+      </c>
+      <c r="J60">
+        <v>0.01257502135875242</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>0.003842465226647954</v>
+        <v>0.0141380789754311</v>
       </c>
       <c r="C61">
-        <v>0.09531036794963393</v>
+        <v>-0.1068366343145243</v>
       </c>
       <c r="D61">
-        <v>-0.002654777382755818</v>
+        <v>-0.03205856686412208</v>
       </c>
       <c r="E61">
-        <v>0.03394371615838086</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.01551094559551425</v>
+      </c>
+      <c r="F61">
+        <v>-0.006592432465158856</v>
+      </c>
+      <c r="G61">
+        <v>-0.0536026189340668</v>
+      </c>
+      <c r="H61">
+        <v>0.04235644170193993</v>
+      </c>
+      <c r="I61">
+        <v>-0.005078167765790052</v>
+      </c>
+      <c r="J61">
+        <v>-0.03608477278948918</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>0.0004476106891963853</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.005257920795884848</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>-0.005383651296080041</v>
       </c>
       <c r="E62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>0.01084315937611801</v>
+      </c>
+      <c r="F62">
+        <v>-0.006028183065251112</v>
+      </c>
+      <c r="G62">
+        <v>-0.0175419783585403</v>
+      </c>
+      <c r="H62">
+        <v>0.01472539397748384</v>
+      </c>
+      <c r="I62">
+        <v>-0.005196008591174525</v>
+      </c>
+      <c r="J62">
+        <v>-0.005459769589925292</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>-0.007166132191449589</v>
+        <v>0.0163164739607338</v>
       </c>
       <c r="C63">
-        <v>0.06047650726376983</v>
+        <v>-0.07487558867453596</v>
       </c>
       <c r="D63">
-        <v>-0.01887627854567771</v>
+        <v>-0.03324392712067113</v>
       </c>
       <c r="E63">
-        <v>0.03348948541430382</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.03008690565616354</v>
+      </c>
+      <c r="F63">
+        <v>-0.007046658429758163</v>
+      </c>
+      <c r="G63">
+        <v>-0.04292251045096709</v>
+      </c>
+      <c r="H63">
+        <v>0.06254394767845395</v>
+      </c>
+      <c r="I63">
+        <v>0.02451725596339512</v>
+      </c>
+      <c r="J63">
+        <v>-0.01601822170496048</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>0.00501217666449636</v>
+        <v>0.01340341650598668</v>
       </c>
       <c r="C64">
-        <v>0.1267703232891229</v>
+        <v>-0.1073173631699851</v>
       </c>
       <c r="D64">
-        <v>0.04943095909431922</v>
+        <v>-0.02356641260052074</v>
       </c>
       <c r="E64">
-        <v>0.01486973538468997</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.001163911439594366</v>
+      </c>
+      <c r="F64">
+        <v>0.02695943803373311</v>
+      </c>
+      <c r="G64">
+        <v>-0.01563333263959202</v>
+      </c>
+      <c r="H64">
+        <v>0.01054064643009298</v>
+      </c>
+      <c r="I64">
+        <v>-0.004882057360354354</v>
+      </c>
+      <c r="J64">
+        <v>-0.042975440258272</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0.01662521428682466</v>
+        <v>0.02531336191997971</v>
       </c>
       <c r="C65">
-        <v>0.07140513382802766</v>
+        <v>-0.0881702901896697</v>
       </c>
       <c r="D65">
-        <v>-0.04666822757883792</v>
+        <v>0.004034118162107153</v>
       </c>
       <c r="E65">
-        <v>0.06758730819893732</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.08109000689522249</v>
+      </c>
+      <c r="F65">
+        <v>0.01490388753449335</v>
+      </c>
+      <c r="G65">
+        <v>-0.08981454650253599</v>
+      </c>
+      <c r="H65">
+        <v>-0.02138577565241774</v>
+      </c>
+      <c r="I65">
+        <v>-0.06054429606802789</v>
+      </c>
+      <c r="J65">
+        <v>0.02433503260140363</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>-0.002279590821197395</v>
+        <v>0.006008284092701354</v>
       </c>
       <c r="C66">
-        <v>0.1548434935593342</v>
+        <v>-0.1606917414592046</v>
       </c>
       <c r="D66">
-        <v>-0.06496441833095309</v>
+        <v>-0.01655736957189774</v>
       </c>
       <c r="E66">
-        <v>0.07971123144015904</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.0589151330555447</v>
+      </c>
+      <c r="F66">
+        <v>-0.005797694030954066</v>
+      </c>
+      <c r="G66">
+        <v>-0.03241199508771663</v>
+      </c>
+      <c r="H66">
+        <v>0.03401332517414959</v>
+      </c>
+      <c r="I66">
+        <v>-0.0288419177134324</v>
+      </c>
+      <c r="J66">
+        <v>0.002682652615945405</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>0.01682005498015061</v>
+        <v>0.01766153097312813</v>
       </c>
       <c r="C67">
-        <v>0.04612769281539641</v>
+        <v>-0.06043991846574864</v>
       </c>
       <c r="D67">
-        <v>0.0271171929449278</v>
+        <v>-0.0317668927022629</v>
       </c>
       <c r="E67">
-        <v>0.0242301655395673</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.008755970057537917</v>
+      </c>
+      <c r="F67">
+        <v>0.03337059707266829</v>
+      </c>
+      <c r="G67">
+        <v>-0.04538526924604371</v>
+      </c>
+      <c r="H67">
+        <v>0.0302546831086534</v>
+      </c>
+      <c r="I67">
+        <v>0.0254300523817365</v>
+      </c>
+      <c r="J67">
+        <v>-0.06587153580264754</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>0.2634455520328899</v>
+        <v>0.2883571808376034</v>
       </c>
       <c r="C68">
-        <v>-0.03131734807371425</v>
+        <v>0.03989937845223643</v>
       </c>
       <c r="D68">
-        <v>-0.05718949163558431</v>
+        <v>0.03450363159166139</v>
       </c>
       <c r="E68">
-        <v>0.01236154307182028</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.05932046451036527</v>
+      </c>
+      <c r="F68">
+        <v>0.01733806829443799</v>
+      </c>
+      <c r="G68">
+        <v>0.04672838533090875</v>
+      </c>
+      <c r="H68">
+        <v>-0.02072981470416112</v>
+      </c>
+      <c r="I68">
+        <v>0.08431496178140591</v>
+      </c>
+      <c r="J68">
+        <v>-0.001580463313008542</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>0.01199826854053639</v>
+        <v>0.008827514517971499</v>
       </c>
       <c r="C69">
-        <v>0.1076396963908708</v>
+        <v>-0.08067639469372682</v>
       </c>
       <c r="D69">
-        <v>0.05004818517208885</v>
+        <v>-0.02330814752809932</v>
       </c>
       <c r="E69">
-        <v>0.005701942387028498</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.01617774951301279</v>
+      </c>
+      <c r="F69">
+        <v>0.005445458688944234</v>
+      </c>
+      <c r="G69">
+        <v>-0.006857487131178401</v>
+      </c>
+      <c r="H69">
+        <v>0.0569151588162641</v>
+      </c>
+      <c r="I69">
+        <v>0.03056939102081023</v>
+      </c>
+      <c r="J69">
+        <v>-0.008685984441506591</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2934,825 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>0.2737679162724841</v>
+        <v>0.2749263741743511</v>
       </c>
       <c r="C71">
-        <v>-0.04200241000936408</v>
+        <v>0.06098880340157885</v>
       </c>
       <c r="D71">
-        <v>-0.05202624774667115</v>
+        <v>0.0180345932007864</v>
       </c>
       <c r="E71">
-        <v>-0.02495597125219429</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.03878617866373941</v>
+      </c>
+      <c r="F71">
+        <v>0.0365997538310076</v>
+      </c>
+      <c r="G71">
+        <v>-0.0007182616827184103</v>
+      </c>
+      <c r="H71">
+        <v>0.04879111194067801</v>
+      </c>
+      <c r="I71">
+        <v>0.1117507697955205</v>
+      </c>
+      <c r="J71">
+        <v>0.08811861854261648</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>0.05420780881357547</v>
+        <v>0.0575026637180443</v>
       </c>
       <c r="C72">
-        <v>0.1867254420671419</v>
+        <v>-0.1602941359191571</v>
       </c>
       <c r="D72">
-        <v>0.03614834089336151</v>
+        <v>-0.01998037172033255</v>
       </c>
       <c r="E72">
-        <v>0.06097247279647007</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.02058570451534489</v>
+      </c>
+      <c r="F72">
+        <v>-0.01845334775210325</v>
+      </c>
+      <c r="G72">
+        <v>-0.02839420262552568</v>
+      </c>
+      <c r="H72">
+        <v>-0.0578992292566269</v>
+      </c>
+      <c r="I72">
+        <v>-0.09503169051390598</v>
+      </c>
+      <c r="J72">
+        <v>-0.04215512121652138</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>0.09014254208279286</v>
+        <v>0.1438406117680368</v>
       </c>
       <c r="C73">
-        <v>0.1597707608244148</v>
+        <v>-0.2046187994641057</v>
       </c>
       <c r="D73">
-        <v>0.08686864734256124</v>
+        <v>-0.05306919573748774</v>
       </c>
       <c r="E73">
-        <v>-0.001170643893579083</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.08314439299532177</v>
+      </c>
+      <c r="F73">
+        <v>-0.1172423239100184</v>
+      </c>
+      <c r="G73">
+        <v>-0.3952106202439321</v>
+      </c>
+      <c r="H73">
+        <v>-0.3352888797561634</v>
+      </c>
+      <c r="I73">
+        <v>0.003938187733638303</v>
+      </c>
+      <c r="J73">
+        <v>0.1002204449874945</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>0.02819563081261324</v>
+        <v>0.03593681894332698</v>
       </c>
       <c r="C74">
-        <v>0.1177035185174347</v>
+        <v>-0.115535832849498</v>
       </c>
       <c r="D74">
-        <v>0.09306677767502215</v>
+        <v>-0.04358146321126348</v>
       </c>
       <c r="E74">
-        <v>-0.05012061686673369</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.08004064459816716</v>
+      </c>
+      <c r="F74">
+        <v>0.001196732599081621</v>
+      </c>
+      <c r="G74">
+        <v>0.02674502548801621</v>
+      </c>
+      <c r="H74">
+        <v>0.01697549934908197</v>
+      </c>
+      <c r="I74">
+        <v>0.01126450802515782</v>
+      </c>
+      <c r="J74">
+        <v>-0.0002905162770292139</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>0.09480986090314512</v>
+        <v>0.06926178491819324</v>
       </c>
       <c r="C75">
-        <v>0.2162488609525021</v>
+        <v>-0.1959748649010861</v>
       </c>
       <c r="D75">
-        <v>0.2112656985389493</v>
+        <v>-0.08850842848060604</v>
       </c>
       <c r="E75">
-        <v>-0.1520822696666165</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.2404932511364282</v>
+      </c>
+      <c r="F75">
+        <v>0.07704486696508245</v>
+      </c>
+      <c r="G75">
+        <v>0.1335520769801495</v>
+      </c>
+      <c r="H75">
+        <v>-0.01024751894245177</v>
+      </c>
+      <c r="I75">
+        <v>0.07322757333525691</v>
+      </c>
+      <c r="J75">
+        <v>-0.04796439442959253</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>0.04086795135330067</v>
+        <v>0.03941201931526823</v>
       </c>
       <c r="C76">
-        <v>0.1485706691268935</v>
+        <v>-0.1428819444858945</v>
       </c>
       <c r="D76">
-        <v>0.1025523777260818</v>
+        <v>-0.07359638198515159</v>
       </c>
       <c r="E76">
-        <v>-0.04897412586674731</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.1103468225329159</v>
+      </c>
+      <c r="F76">
+        <v>-0.004174319362856632</v>
+      </c>
+      <c r="G76">
+        <v>0.02414399494240683</v>
+      </c>
+      <c r="H76">
+        <v>0.01658687114841114</v>
+      </c>
+      <c r="I76">
+        <v>0.01894944842346743</v>
+      </c>
+      <c r="J76">
+        <v>-0.02099586646115125</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>0.03063740538063522</v>
+        <v>0.0239233396566261</v>
       </c>
       <c r="C77">
-        <v>0.1659723192548488</v>
+        <v>-0.2456192940173399</v>
       </c>
       <c r="D77">
-        <v>-0.6180149914399699</v>
+        <v>0.9459121321052345</v>
       </c>
       <c r="E77">
-        <v>-0.6895612055499826</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.1595412673383363</v>
+      </c>
+      <c r="F77">
+        <v>0.01976297851196279</v>
+      </c>
+      <c r="G77">
+        <v>-0.009167277867188637</v>
+      </c>
+      <c r="H77">
+        <v>0.04858761819449627</v>
+      </c>
+      <c r="I77">
+        <v>-0.01910125270730018</v>
+      </c>
+      <c r="J77">
+        <v>-0.007523198876197051</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>0.02514992544828467</v>
+        <v>0.02589462941816057</v>
       </c>
       <c r="C78">
-        <v>0.1556719578000108</v>
+        <v>-0.1272346200697764</v>
       </c>
       <c r="D78">
-        <v>-0.0580478029711831</v>
+        <v>-0.06184157294074573</v>
       </c>
       <c r="E78">
-        <v>0.09670492892471702</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.03687292947279373</v>
+      </c>
+      <c r="F78">
+        <v>-0.01653841418880474</v>
+      </c>
+      <c r="G78">
+        <v>0.0797570190496687</v>
+      </c>
+      <c r="H78">
+        <v>0.1324521398846268</v>
+      </c>
+      <c r="I78">
+        <v>-0.1585877518735552</v>
+      </c>
+      <c r="J78">
+        <v>0.4992439696806343</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B79">
-        <v>0.05620791849768944</v>
+        <v>0.0572602656185492</v>
       </c>
       <c r="C79">
-        <v>0.2490103101709299</v>
+        <v>-0.1879458840089573</v>
       </c>
       <c r="D79">
-        <v>0.1867238013056128</v>
+        <v>-0.07082059294273774</v>
       </c>
       <c r="E79">
-        <v>-0.1221487536227058</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.1884409733957096</v>
+      </c>
+      <c r="F79">
+        <v>0.009909852639993791</v>
+      </c>
+      <c r="G79">
+        <v>0.1850984643859769</v>
+      </c>
+      <c r="H79">
+        <v>0.0624095744411835</v>
+      </c>
+      <c r="I79">
+        <v>0.08317497078069568</v>
+      </c>
+      <c r="J79">
+        <v>0.01713888397478205</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>-0.01692764660457762</v>
+        <v>0.005824417802055566</v>
       </c>
       <c r="C80">
-        <v>0.06983259477068772</v>
+        <v>-0.06342379219877069</v>
       </c>
       <c r="D80">
-        <v>0.02645237537789717</v>
+        <v>-0.04066724122625155</v>
       </c>
       <c r="E80">
-        <v>0.01958484382973528</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.03421846933905408</v>
+      </c>
+      <c r="F80">
+        <v>-0.07056757992623398</v>
+      </c>
+      <c r="G80">
+        <v>-0.04088857189768964</v>
+      </c>
+      <c r="H80">
+        <v>-0.05290267837155382</v>
+      </c>
+      <c r="I80">
+        <v>0.05739440555486029</v>
+      </c>
+      <c r="J80">
+        <v>-0.07522088464477596</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>0.03425028955732186</v>
+        <v>0.02255821105345613</v>
       </c>
       <c r="C81">
-        <v>0.1315546326454713</v>
+        <v>-0.1195923023945769</v>
       </c>
       <c r="D81">
-        <v>0.1336445018318377</v>
+        <v>-0.04699578228771456</v>
       </c>
       <c r="E81">
-        <v>-0.1089419059307437</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.1107553308712472</v>
+      </c>
+      <c r="F81">
+        <v>0.01287432706363377</v>
+      </c>
+      <c r="G81">
+        <v>0.08725433492582035</v>
+      </c>
+      <c r="H81">
+        <v>0.07263732999384805</v>
+      </c>
+      <c r="I81">
+        <v>0.08930072772093245</v>
+      </c>
+      <c r="J81">
+        <v>-0.02838300215064747</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B82">
-        <v>0.05724547477434856</v>
+        <v>0.04950497533194646</v>
       </c>
       <c r="C82">
-        <v>0.1578897780230856</v>
+        <v>-0.1332692591717511</v>
       </c>
       <c r="D82">
-        <v>0.1400026438501686</v>
+        <v>-0.07105524192595947</v>
       </c>
       <c r="E82">
-        <v>-0.07578307119324564</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.1262812601154435</v>
+      </c>
+      <c r="F82">
+        <v>-0.001788088030886464</v>
+      </c>
+      <c r="G82">
+        <v>0.05510012253930529</v>
+      </c>
+      <c r="H82">
+        <v>0.03325341235923866</v>
+      </c>
+      <c r="I82">
+        <v>0.05373314756127565</v>
+      </c>
+      <c r="J82">
+        <v>-0.01397086092370351</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>0.01380979733470104</v>
+        <v>0.004361615611539332</v>
       </c>
       <c r="C83">
-        <v>0.0618191846363512</v>
+        <v>-0.01145921240753614</v>
       </c>
       <c r="D83">
-        <v>-0.05350982813805898</v>
+        <v>0.04368290694974823</v>
       </c>
       <c r="E83">
-        <v>0.02142312253394006</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.0998406823363864</v>
+      </c>
+      <c r="F83">
+        <v>-0.9127408604193304</v>
+      </c>
+      <c r="G83">
+        <v>0.2721587975151606</v>
+      </c>
+      <c r="H83">
+        <v>-0.04312841542405761</v>
+      </c>
+      <c r="I83">
+        <v>0.1258398637770476</v>
+      </c>
+      <c r="J83">
+        <v>-0.007496101568876964</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B84">
-        <v>-0.00347123226031015</v>
+        <v>-0.00186007295888972</v>
       </c>
       <c r="C84">
-        <v>0.03154796111311425</v>
+        <v>-0.03843046393868678</v>
       </c>
       <c r="D84">
-        <v>-0.03163459555488948</v>
+        <v>-0.04443313846575078</v>
       </c>
       <c r="E84">
-        <v>0.07922360800115846</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.07301065055770467</v>
+      </c>
+      <c r="F84">
+        <v>0.05363127481176856</v>
+      </c>
+      <c r="G84">
+        <v>0.04205975540476451</v>
+      </c>
+      <c r="H84">
+        <v>0.06466077870692422</v>
+      </c>
+      <c r="I84">
+        <v>-0.04608706930299255</v>
+      </c>
+      <c r="J84">
+        <v>-0.07831718800142193</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>0.03933427056620501</v>
+        <v>0.03133435239934816</v>
       </c>
       <c r="C85">
-        <v>0.1735353344066347</v>
+        <v>-0.1420250382341857</v>
       </c>
       <c r="D85">
-        <v>0.1528004672239207</v>
+        <v>-0.08447645064065677</v>
       </c>
       <c r="E85">
-        <v>-0.08805658208963607</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.180350814457904</v>
+      </c>
+      <c r="F85">
+        <v>0.00349384197838217</v>
+      </c>
+      <c r="G85">
+        <v>0.1120205271722921</v>
+      </c>
+      <c r="H85">
+        <v>0.02573718160354309</v>
+      </c>
+      <c r="I85">
+        <v>0.07603539058145552</v>
+      </c>
+      <c r="J85">
+        <v>-0.03678831702005273</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>0.03110681040814644</v>
+        <v>0.01770509218444966</v>
       </c>
       <c r="C86">
-        <v>0.04676157946317487</v>
+        <v>-0.07069588226818842</v>
       </c>
       <c r="D86">
-        <v>-0.0988648343260783</v>
+        <v>0.00557080741145712</v>
       </c>
       <c r="E86">
-        <v>0.008857929516030436</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.06637363397902425</v>
+      </c>
+      <c r="F86">
+        <v>0.05435625582153223</v>
+      </c>
+      <c r="G86">
+        <v>0.05921187021222441</v>
+      </c>
+      <c r="H86">
+        <v>0.08230329425485768</v>
+      </c>
+      <c r="I86">
+        <v>0.05360218877635061</v>
+      </c>
+      <c r="J86">
+        <v>0.1885729466136749</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>0.02358384318411718</v>
+        <v>0.01555098802565895</v>
       </c>
       <c r="C87">
-        <v>0.1221211774102398</v>
+        <v>-0.1235047467987637</v>
       </c>
       <c r="D87">
-        <v>-0.1101597109370095</v>
+        <v>0.0171213674511064</v>
       </c>
       <c r="E87">
-        <v>0.1040177709568413</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.1075877683776683</v>
+      </c>
+      <c r="F87">
+        <v>0.02324438692974565</v>
+      </c>
+      <c r="G87">
+        <v>0.02285342116303403</v>
+      </c>
+      <c r="H87">
+        <v>0.01599866995267791</v>
+      </c>
+      <c r="I87">
+        <v>-0.1395711156317159</v>
+      </c>
+      <c r="J87">
+        <v>0.09007341696393537</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>0.0206966150562401</v>
+        <v>0.03501483450315986</v>
       </c>
       <c r="C88">
-        <v>0.07500258157701094</v>
+        <v>-0.08344244284619487</v>
       </c>
       <c r="D88">
-        <v>0.05927161320608448</v>
+        <v>-0.02803588409922483</v>
       </c>
       <c r="E88">
-        <v>-0.01243693708308842</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.01737541489320178</v>
+      </c>
+      <c r="F88">
+        <v>0.008464198498736759</v>
+      </c>
+      <c r="G88">
+        <v>-0.02544186016089745</v>
+      </c>
+      <c r="H88">
+        <v>-0.0007666735341366973</v>
+      </c>
+      <c r="I88">
+        <v>0.02459015133053493</v>
+      </c>
+      <c r="J88">
+        <v>-0.07504062595340685</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>0.4465730149557386</v>
+        <v>0.4083870782295923</v>
       </c>
       <c r="C89">
-        <v>-0.09183312486719249</v>
+        <v>0.112630039365335</v>
       </c>
       <c r="D89">
-        <v>0.05101927798040987</v>
+        <v>0.01032163479297887</v>
       </c>
       <c r="E89">
-        <v>0.2698778193568521</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.05626360919826549</v>
+      </c>
+      <c r="F89">
+        <v>-0.09387243798754481</v>
+      </c>
+      <c r="G89">
+        <v>0.0874538755448898</v>
+      </c>
+      <c r="H89">
+        <v>0.06955583048159958</v>
+      </c>
+      <c r="I89">
+        <v>-0.7579240960022076</v>
+      </c>
+      <c r="J89">
+        <v>-0.1431915715007576</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>0.3233789472739649</v>
+        <v>0.3237299037137691</v>
       </c>
       <c r="C90">
-        <v>-0.04382308642869361</v>
+        <v>0.06157229991430452</v>
       </c>
       <c r="D90">
-        <v>-0.06423084619520722</v>
+        <v>0.0183526477798513</v>
       </c>
       <c r="E90">
-        <v>-0.01291885462208625</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.03603513486242817</v>
+      </c>
+      <c r="F90">
+        <v>0.02077890511648513</v>
+      </c>
+      <c r="G90">
+        <v>0.02455109142843159</v>
+      </c>
+      <c r="H90">
+        <v>-0.009816944470366682</v>
+      </c>
+      <c r="I90">
+        <v>0.155731358359383</v>
+      </c>
+      <c r="J90">
+        <v>0.008215892609107673</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>0.04200818166768173</v>
+        <v>0.05079863452252395</v>
       </c>
       <c r="C91">
-        <v>0.1386768656495174</v>
+        <v>-0.1190898406535107</v>
       </c>
       <c r="D91">
-        <v>0.08850437633341404</v>
+        <v>-0.03686333226595295</v>
       </c>
       <c r="E91">
-        <v>-0.06691875308074577</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.09753365784281399</v>
+      </c>
+      <c r="F91">
+        <v>-0.03067034284938655</v>
+      </c>
+      <c r="G91">
+        <v>0.06570796681621183</v>
+      </c>
+      <c r="H91">
+        <v>0.01434953626019512</v>
+      </c>
+      <c r="I91">
+        <v>0.02909025760161582</v>
+      </c>
+      <c r="J91">
+        <v>-0.03160815662483663</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>0.3470715864469548</v>
+        <v>0.3494308738158557</v>
       </c>
       <c r="C92">
-        <v>-0.09790568379792493</v>
+        <v>0.1118889838595844</v>
       </c>
       <c r="D92">
-        <v>-0.06925673406323074</v>
+        <v>0.04606537670558517</v>
       </c>
       <c r="E92">
-        <v>-0.02757505421237176</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.06115003139538622</v>
+      </c>
+      <c r="F92">
+        <v>0.1025635410403338</v>
+      </c>
+      <c r="G92">
+        <v>0.003095066680582969</v>
+      </c>
+      <c r="H92">
+        <v>0.04563838341209643</v>
+      </c>
+      <c r="I92">
+        <v>0.1517660216667722</v>
+      </c>
+      <c r="J92">
+        <v>-0.0130856375085791</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>0.3340229888033845</v>
+        <v>0.3243418724484881</v>
       </c>
       <c r="C93">
-        <v>-0.07994243749747217</v>
+        <v>0.1041153606598572</v>
       </c>
       <c r="D93">
-        <v>0.01302868311627805</v>
+        <v>-0.003807939885606018</v>
       </c>
       <c r="E93">
-        <v>-0.02156146780767091</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.001435070333064625</v>
+      </c>
+      <c r="F93">
+        <v>0.0196790675863101</v>
+      </c>
+      <c r="G93">
+        <v>0.02777630486137028</v>
+      </c>
+      <c r="H93">
+        <v>0.04033033072543517</v>
+      </c>
+      <c r="I93">
+        <v>0.120603079983485</v>
+      </c>
+      <c r="J93">
+        <v>0.04695009051366174</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>0.09225865452834341</v>
+        <v>0.08534117319437121</v>
       </c>
       <c r="C94">
-        <v>0.2323122872914382</v>
+        <v>-0.1993298381470062</v>
       </c>
       <c r="D94">
-        <v>0.2606678777626651</v>
+        <v>-0.1152694452247057</v>
       </c>
       <c r="E94">
-        <v>-0.1313945207236287</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.3416675052264412</v>
+      </c>
+      <c r="F94">
+        <v>0.03692587596949444</v>
+      </c>
+      <c r="G94">
+        <v>0.3542190261606593</v>
+      </c>
+      <c r="H94">
+        <v>-0.02350120084738938</v>
+      </c>
+      <c r="I94">
+        <v>-0.1959759499012475</v>
+      </c>
+      <c r="J94">
+        <v>-0.1752503182907902</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>0.02410006155386126</v>
+        <v>0.03250876284218989</v>
       </c>
       <c r="C95">
-        <v>0.07103295464982211</v>
+        <v>-0.1149248291797489</v>
       </c>
       <c r="D95">
-        <v>0.01022309423612009</v>
+        <v>-0.00851534995344057</v>
       </c>
       <c r="E95">
-        <v>0.006408854907850457</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.001166656684585193</v>
+      </c>
+      <c r="F95">
+        <v>0.01838797119700176</v>
+      </c>
+      <c r="G95">
+        <v>-0.1256455605289165</v>
+      </c>
+      <c r="H95">
+        <v>0.03682693759389886</v>
+      </c>
+      <c r="I95">
+        <v>-0.008462014267565335</v>
+      </c>
+      <c r="J95">
+        <v>-0.122945856074119</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,61 +3766,121 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.004477071797157342</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.008591331380275308</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.02016078531191416</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.01799378001185607</v>
+      </c>
+      <c r="F97">
+        <v>0.01439672094564768</v>
+      </c>
+      <c r="G97">
+        <v>-0.03419011180339412</v>
+      </c>
+      <c r="H97">
+        <v>-0.01546768183675106</v>
+      </c>
+      <c r="I97">
+        <v>0.004212678315686834</v>
+      </c>
+      <c r="J97">
+        <v>0.007121180699561275</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>0.07726222617656774</v>
+        <v>0.1263535355506071</v>
       </c>
       <c r="C98">
-        <v>0.1499299643733382</v>
+        <v>-0.1727528423555132</v>
       </c>
       <c r="D98">
-        <v>0.02620763658447081</v>
+        <v>-0.05688670698908543</v>
       </c>
       <c r="E98">
-        <v>0.0121120500846657</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.05028227350846356</v>
+      </c>
+      <c r="F98">
+        <v>-0.07372334596080875</v>
+      </c>
+      <c r="G98">
+        <v>-0.3344707942930854</v>
+      </c>
+      <c r="H98">
+        <v>-0.3697341299256014</v>
+      </c>
+      <c r="I98">
+        <v>-0.04620008903850017</v>
+      </c>
+      <c r="J98">
+        <v>0.1356822520227173</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.000113664623629389</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>-0.008300090270359902</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>0.008399426009548074</v>
       </c>
       <c r="E99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>-0.0008374735625923419</v>
+      </c>
+      <c r="F99">
+        <v>-0.003372861120338518</v>
+      </c>
+      <c r="G99">
+        <v>-0.007241299698777778</v>
+      </c>
+      <c r="H99">
+        <v>0.03279120687453481</v>
+      </c>
+      <c r="I99">
+        <v>-0.02447790320400204</v>
+      </c>
+      <c r="J99">
+        <v>-0.01762158705342385</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3894,89 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>-0.002065049022793245</v>
+        <v>0.005650598264183107</v>
       </c>
       <c r="C101">
-        <v>0.05640695247823761</v>
+        <v>-0.07958100473247874</v>
       </c>
       <c r="D101">
-        <v>-0.04933277837112155</v>
+        <v>-0.01851719460668306</v>
       </c>
       <c r="E101">
-        <v>0.091581718016314</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.135630910197745</v>
+      </c>
+      <c r="F101">
+        <v>-0.04928354717830113</v>
+      </c>
+      <c r="G101">
+        <v>-0.1529093353950766</v>
+      </c>
+      <c r="H101">
+        <v>0.2477100666145562</v>
+      </c>
+      <c r="I101">
+        <v>-0.04167396746686285</v>
+      </c>
+      <c r="J101">
+        <v>-0.2411348855135393</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>0.02046030105153812</v>
+        <v>0.008731604933794046</v>
       </c>
       <c r="C102">
-        <v>0.0868755922450091</v>
+        <v>-0.0414014911734471</v>
       </c>
       <c r="D102">
-        <v>0.06691504245541266</v>
+        <v>-0.01907163442579895</v>
       </c>
       <c r="E102">
-        <v>-0.03842502675792156</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.05276045960832793</v>
+      </c>
+      <c r="F102">
+        <v>-0.01196132040477564</v>
+      </c>
+      <c r="G102">
+        <v>0.04405889196123143</v>
+      </c>
+      <c r="H102">
+        <v>0.01304523644285349</v>
+      </c>
+      <c r="I102">
+        <v>-0.0065185432376879</v>
+      </c>
+      <c r="J102">
+        <v>-0.006639204587099706</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3990,25 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +4020,21 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
